--- a/testResults/graphs.xlsx
+++ b/testResults/graphs.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gshamay\Documents\BGU\RS\SR-GNN\testResults\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="yoochoose" sheetId="1" r:id="rId1"/>
+    <sheet name="diginetica" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>yoochoose 64 aEOS accuracy</t>
   </si>
@@ -55,11 +46,29 @@
   <si>
     <t>EvalEOS</t>
   </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>test size</t>
+  </si>
+  <si>
+    <t>items_ctr_beforeAddition</t>
+  </si>
+  <si>
+    <t>MRR@20</t>
+  </si>
+  <si>
+    <t>digineticaaEOS accuracy</t>
+  </si>
+  <si>
+    <t>items_ctr_AfterAddition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,9 +107,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -112,15 +122,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -134,6 +141,113 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
+              <a:t>yoochoose 1/64 - test with aEOS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>size of aEOS /  P@20</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -143,26 +257,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -185,7 +279,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>yoochoose!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -208,23 +302,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:f>yoochoose!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3663</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7327</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>10991</c:v>
                 </c:pt>
               </c:numCache>
@@ -232,30 +329,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:f>yoochoose!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>76.272099999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>69.08</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>67.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>60.96</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>61.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B157-4BF6-8417-4A6678D0955B}"/>
             </c:ext>
@@ -269,12 +369,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="751648879"/>
-        <c:axId val="751638895"/>
+        <c:axId val="203539584"/>
+        <c:axId val="203541120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="751648879"/>
+        <c:axId val="203539584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,7 +418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="751638895"/>
+        <c:crossAx val="203541120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -325,7 +426,553 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="751638895"/>
+        <c:axId val="203541120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203539584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>yoochoose 1/64 - test with aEOS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>size of aEOS  / a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
+              <a:t>EOS  prediction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yoochoose!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>yoochoose!$K$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>yoochoose!$K$9:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9584-464A-AFC8-AA5B62FD62AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yoochoose!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>False Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>yoochoose!$K$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>yoochoose!$K$10:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9584-464A-AFC8-AA5B62FD62AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yoochoose!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>False Negative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>yoochoose!$K$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>yoochoose!$K$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9584-464A-AFC8-AA5B62FD62AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="204251904"/>
+        <c:axId val="204253824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="204251904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204253824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204253824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,851 +1023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="751648879"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11610870516185477"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.88389129483814521"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MRR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$P$4:$T$5</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>23.16</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>23.74</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>23.85</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>23.85</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>23.77</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>182</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3663</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7327</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10991</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$5:$T$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>23.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.74</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD90-44D1-81E0-9DBA2EA53BFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="751646799"/>
-        <c:axId val="751635983"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="751646799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="751635983"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="751635983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="751646799"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>EOS  prediction</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>predicted</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$P$19:$T$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$20:$T$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>12789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9460</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5520</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5962</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9584-464A-AFC8-AA5B62FD62AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>False Positive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$P$19:$T$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$21:$T$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>26458</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11231</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12466</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9584-464A-AFC8-AA5B62FD62AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>False Negative</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$P$19:$T$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$22:$T$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2550</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5879</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9527</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9377</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9584-464A-AFC8-AA5B62FD62AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="751645135"/>
-        <c:axId val="751635567"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="751645135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="751635567"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="751635567"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="751645135"/>
+        <c:crossAx val="204251904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,47 +1104,250 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>yoochoose 1/64 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>- test with aEOS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>size of aEOS/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>MRR@20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yoochoose!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MRR@20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>yoochoose!$K$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>yoochoose!$K$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>38.923299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="204274304"/>
+        <c:axId val="204284288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="204274304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204284288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204284288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204274304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1937,522 +1943,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2961,15 +2451,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>974951</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2990,20 +2480,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3020,20 +2510,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>435427</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="4" name="Chart 3" descr="vfdvdf" title="fvdfvfd"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3306,7 +2796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3314,196 +2804,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>1E-3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.05</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>35</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>182</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3663</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7327</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10991</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <v>76.272099999999995</v>
+      </c>
+      <c r="C4">
         <v>69.08</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>67.3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>60.9</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>60.96</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>61.01</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>182</v>
+      </c>
+      <c r="N4">
+        <v>3663</v>
+      </c>
+      <c r="O4">
+        <v>7327</v>
+      </c>
       <c r="P4">
-        <v>35</v>
-      </c>
-      <c r="Q4">
-        <v>182</v>
-      </c>
-      <c r="R4">
-        <v>3663</v>
-      </c>
-      <c r="S4">
-        <v>7327</v>
-      </c>
-      <c r="T4">
         <v>10991</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>38.923299999999998</v>
+      </c>
+      <c r="C5">
         <v>23.16</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>23.74</v>
-      </c>
-      <c r="D5">
-        <v>23.85</v>
       </c>
       <c r="E5">
         <v>23.85</v>
       </c>
       <c r="F5">
+        <v>23.85</v>
+      </c>
+      <c r="G5">
         <v>23.77</v>
       </c>
-      <c r="O5" t="s">
-        <v>4</v>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>38.923299999999998</v>
+      </c>
+      <c r="L5">
+        <v>23.16</v>
+      </c>
+      <c r="M5">
+        <v>23.74</v>
+      </c>
+      <c r="N5">
+        <v>23.85</v>
+      </c>
+      <c r="O5">
+        <v>23.85</v>
       </c>
       <c r="P5">
-        <v>23.16</v>
-      </c>
-      <c r="Q5">
-        <v>23.74</v>
-      </c>
-      <c r="R5">
-        <v>23.85</v>
-      </c>
-      <c r="S5">
-        <v>23.85</v>
-      </c>
-      <c r="T5">
         <v>23.77</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
+        <v>15329</v>
+      </c>
+      <c r="C6">
         <v>12789</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9460</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5520</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5812</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5962</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
+        <v>40967</v>
+      </c>
+      <c r="C7">
         <v>26458</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>18003</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>11231</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12015</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>12466</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>2550</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5879</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>9819</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>9527</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9377</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>182</v>
+      </c>
+      <c r="N8">
+        <v>3663</v>
+      </c>
+      <c r="O8">
+        <v>7327</v>
+      </c>
+      <c r="P8">
+        <v>10991</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3522,8 +3059,32 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>15329</v>
+      </c>
+      <c r="L9">
+        <v>12789</v>
+      </c>
+      <c r="M9">
+        <v>9460</v>
+      </c>
+      <c r="N9">
+        <v>5520</v>
+      </c>
+      <c r="O9">
+        <v>5812</v>
+      </c>
+      <c r="P9">
+        <v>5962</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3542,93 +3103,319 @@
       <c r="F10">
         <v>15339</v>
       </c>
+      <c r="G10">
+        <v>15339</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>40967</v>
+      </c>
+      <c r="L10">
+        <v>26458</v>
+      </c>
+      <c r="M10">
+        <v>18003</v>
+      </c>
+      <c r="N10">
+        <v>11231</v>
+      </c>
+      <c r="O10">
+        <v>12015</v>
+      </c>
+      <c r="P10">
+        <v>12466</v>
+      </c>
     </row>
-    <row r="18" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O18" s="1"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>71222</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>2550</v>
+      </c>
+      <c r="M11">
+        <v>5879</v>
+      </c>
+      <c r="N11">
+        <v>9819</v>
+      </c>
+      <c r="O11">
+        <v>9527</v>
+      </c>
+      <c r="P11">
+        <v>9377</v>
+      </c>
     </row>
-    <row r="19" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="P19">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>37484</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>35</v>
       </c>
-      <c r="Q19">
-        <v>182</v>
-      </c>
-      <c r="R19">
-        <v>3663</v>
-      </c>
-      <c r="S19">
+      <c r="D17">
         <v>7327</v>
       </c>
-      <c r="T19">
-        <v>10991</v>
-      </c>
     </row>
-    <row r="20" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20">
-        <v>12789</v>
-      </c>
-      <c r="Q20">
-        <v>9460</v>
-      </c>
-      <c r="R20">
-        <v>5520</v>
-      </c>
-      <c r="S20">
-        <v>5812</v>
-      </c>
-      <c r="T20">
-        <v>5962</v>
-      </c>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>70.014300000000006</v>
+      </c>
+      <c r="C18">
+        <v>65.191400000000002</v>
+      </c>
+      <c r="D18">
+        <v>69.252200000000002</v>
+      </c>
+      <c r="K18" s="1"/>
     </row>
-    <row r="21" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O21" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21">
-        <v>26458</v>
-      </c>
-      <c r="Q21">
-        <v>18003</v>
-      </c>
-      <c r="R21">
-        <v>11231</v>
-      </c>
-      <c r="S21">
-        <v>12015</v>
-      </c>
-      <c r="T21">
-        <v>12466</v>
-      </c>
-    </row>
-    <row r="22" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O22" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22">
-        <v>2550</v>
-      </c>
-      <c r="Q22">
-        <v>5879</v>
-      </c>
-      <c r="R22">
-        <v>9819</v>
-      </c>
-      <c r="S22">
-        <v>9527</v>
-      </c>
-      <c r="T22">
-        <v>9377</v>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>25.252199999999998</v>
+      </c>
+      <c r="C19">
+        <v>29.6798</v>
+      </c>
+      <c r="D19">
+        <v>30.325500000000002</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:D3" si="0">B14-B13</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f>E14-E13</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>F14-F13</f>
+        <v>7747</v>
+      </c>
+      <c r="G3" s="2">
+        <f>G14-G13</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="E4">
+        <v>59.773699999999998</v>
+      </c>
+      <c r="F4">
+        <v>48.341999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>29.241299999999999</v>
+      </c>
+      <c r="F5">
+        <v>12.985099999999999</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>15972</v>
+      </c>
+      <c r="F6">
+        <v>28866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>45468</v>
+      </c>
+      <c r="F7">
+        <v>12015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>15988</v>
+      </c>
+      <c r="F10">
+        <v>15988</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>76821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>43098</v>
+      </c>
+      <c r="F13">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>43099</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50845</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>